--- a/Travis_County/Documentation/Travis_County_2019_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2019_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QEXTRCT' 'QEDLESHI' 'QHISPC' 'QESL' 'QSERV' 'QNOHLTH' 'PERCAP'
+          <t>['QESL' 'PPUNIT' 'QEDLESHI' 'QHISPC' 'QNOHLTH' 'QSERV' 'QEXTRCT' 'PERCAP'
  'QFHH']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'MDHSEVAL' 'QRICH']</t>
+          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QRENTER' 'QPOVTY' 'QNOAUTO']</t>
+          <t>['QRENTER' 'QNOAUTO' 'QPOVTY']</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
+          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
         </is>
       </c>
     </row>
@@ -584,45 +584,45 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7163381391368032</v>
+        <v>0.7710373703114096</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0491153524047009</v>
+        <v>0.1699122220342584</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.08826231754047902</v>
+        <v>-0.04922328053492717</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3752405497978716</v>
+        <v>0.1763260275555902</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1082069706594863</v>
+        <v>-0.2279019739325974</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7782826623845072</v>
+        <v>0.7163381413134868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1356252030147569</v>
+        <v>-0.04911535347006139</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02831620329413164</v>
+        <v>-0.08826232351490147</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06461226581451877</v>
+        <v>-0.3752405587914745</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2142235153473188</v>
+        <v>0.1082069730305032</v>
       </c>
     </row>
     <row r="4">
@@ -632,19 +632,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8620380826195621</v>
+        <v>0.8620380840342905</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2178973326224182</v>
+        <v>0.2178973314144597</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009137242461690776</v>
+        <v>0.00913724299824761</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1896693368108474</v>
+        <v>0.1896693359116807</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1047063827093251</v>
+        <v>-0.1047063828551197</v>
       </c>
     </row>
     <row r="5">
@@ -654,41 +654,41 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8195686412389127</v>
+        <v>0.8195686393389251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3528442972035266</v>
+        <v>0.3528442964268741</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1123103921333993</v>
+        <v>-0.1123103918846655</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1083518370590444</v>
+        <v>0.1083518371166312</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1312378921953344</v>
+        <v>-0.1312378922779179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7710373694745138</v>
+        <v>0.664640440656863</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1699122231051391</v>
+        <v>0.4300115824886732</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04922328219812417</v>
+        <v>-0.06979631800196752</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1763260269774088</v>
+        <v>0.2528269903147914</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2279019731612825</v>
+        <v>-0.1342238767271383</v>
       </c>
     </row>
     <row r="7">
@@ -698,41 +698,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5739901507526241</v>
+        <v>0.5739901519602962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3660124181065489</v>
+        <v>0.3660124165492233</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1657718181369192</v>
+        <v>-0.1657718182772126</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3037369629573242</v>
+        <v>0.3037369625029354</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.05431698660272954</v>
+        <v>-0.05431698638550993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6646404394488219</v>
+        <v>0.7782826624132134</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4300115838219333</v>
+        <v>0.1356252026708027</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.06979631903782327</v>
+        <v>-0.02831620240160483</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2528269895174884</v>
+        <v>0.06461226540028045</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1342238764241604</v>
+        <v>-0.2142235158524506</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5008581696388659</v>
+        <v>0.5008581706111616</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7068287008120133</v>
+        <v>0.706828701298429</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.235465604103371</v>
+        <v>-0.2354656060493542</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1849142857854769</v>
+        <v>0.1849142842472271</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08409873255120159</v>
+        <v>0.08409873372830448</v>
       </c>
     </row>
     <row r="10">
@@ -764,63 +764,63 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5756381638657645</v>
+        <v>0.5756381644391316</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2481999147549003</v>
+        <v>0.2481999142322477</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00730286897068264</v>
+        <v>-0.007302870366954998</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08150148702100395</v>
+        <v>0.08150148524366285</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2295452295648589</v>
+        <v>0.2295452304581432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3768770858222096</v>
+        <v>0.2370191025212669</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7947218002832567</v>
+        <v>0.837586213503246</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.07404588231463052</v>
+        <v>-0.2059104174342114</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.03403758690962097</v>
+        <v>0.3148028664732525</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02917640970282468</v>
+        <v>-0.03073101713398335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2370191013330182</v>
+        <v>0.3768770853591332</v>
       </c>
       <c r="C12" t="n">
-        <v>0.837586214014421</v>
+        <v>0.7947218037000914</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2059104181948199</v>
+        <v>-0.07404588234023969</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3148028640985192</v>
+        <v>-0.03403758781339291</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03073101716430475</v>
+        <v>0.0291764094771565</v>
       </c>
     </row>
     <row r="13">
@@ -830,19 +830,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2799970100897959</v>
+        <v>-0.2799970105938261</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2283516410238472</v>
+        <v>-0.2283516395058378</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7796766746011711</v>
+        <v>0.7796766778756494</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.308056389179526</v>
+        <v>-0.3080563892774956</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07828734356796176</v>
+        <v>-0.07828734457891075</v>
       </c>
     </row>
     <row r="14">
@@ -852,19 +852,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01911179251050166</v>
+        <v>-0.01911179177596987</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1421335480201326</v>
+        <v>-0.1421335481267801</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7228043138555126</v>
+        <v>0.722804315970739</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.06893936297135148</v>
+        <v>-0.06893936282044803</v>
       </c>
       <c r="F14" t="n">
-        <v>0.577303253176577</v>
+        <v>0.5773032568375647</v>
       </c>
     </row>
     <row r="15">
@@ -874,19 +874,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03069875378805446</v>
+        <v>0.03069875454850582</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06832501893506139</v>
+        <v>-0.06832501990930143</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8135614547554335</v>
+        <v>0.8135614489793346</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.140143902131981</v>
+        <v>-0.1401439056242418</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1110613092970484</v>
+        <v>0.1110613116324732</v>
       </c>
     </row>
     <row r="16">
@@ -896,107 +896,107 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02252423415398956</v>
+        <v>-0.02252423251283685</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2520805303075975</v>
+        <v>0.2520805273154729</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4372443912254348</v>
+        <v>-0.4372443891608503</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7376370358039159</v>
+        <v>0.737637042952187</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.112648303292031</v>
+        <v>-0.1126483035129214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2772247075726759</v>
+        <v>0.133889969887876</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1320875708985358</v>
+        <v>0.0532923984052213</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3307933599344226</v>
+        <v>-0.04656029707767763</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5596088503639424</v>
+        <v>0.7398553445767126</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1365168938386847</v>
+        <v>0.01303061619987351</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.133889966862003</v>
+        <v>0.2772247094325571</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05329239896067786</v>
+        <v>0.1320875694826831</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.04656029415000976</v>
+        <v>-0.330793361418331</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7398553536186369</v>
+        <v>0.5596088471642952</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0130306140866204</v>
+        <v>0.1365168950783244</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2223644612039579</v>
+        <v>-0.02635136390715215</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08523116696336171</v>
+        <v>-0.04008883933396452</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04130466579849158</v>
+        <v>0.2036171317561216</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004904382680669567</v>
+        <v>0.0233369804047918</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7515631050277164</v>
+        <v>0.855443602512891</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02635136318528297</v>
+        <v>-0.2223644614709627</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.04008883977566619</v>
+        <v>0.08523116677994901</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2036171324275336</v>
+        <v>-0.0413046652323644</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02333698045880793</v>
+        <v>0.004904383437521533</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8554436025210925</v>
+        <v>0.7515631002766183</v>
       </c>
     </row>
   </sheetData>
@@ -1112,55 +1112,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.76274232457524</v>
+        <v>4.76274233099069</v>
       </c>
       <c r="C2" t="n">
-        <v>3.481104907946937</v>
+        <v>3.481104899494877</v>
       </c>
       <c r="D2" t="n">
-        <v>2.406277030703235</v>
+        <v>2.406277029064285</v>
       </c>
       <c r="E2" t="n">
-        <v>2.276931353080027</v>
+        <v>2.276931353587917</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91413540803833</v>
+        <v>1.914135407417509</v>
       </c>
       <c r="G2" t="n">
-        <v>1.195877862068385</v>
+        <v>1.195877861770458</v>
       </c>
       <c r="H2" t="n">
-        <v>1.08951243160533</v>
+        <v>1.089512424422578</v>
       </c>
       <c r="I2" t="n">
-        <v>4.831108716677116</v>
+        <v>4.831108712860908</v>
       </c>
       <c r="J2" t="n">
-        <v>2.779550303571835</v>
+        <v>2.779550294453538</v>
       </c>
       <c r="K2" t="n">
-        <v>2.31942289838239</v>
+        <v>2.31942288868519</v>
       </c>
       <c r="L2" t="n">
-        <v>2.29898592976996</v>
+        <v>2.298985934708575</v>
       </c>
       <c r="M2" t="n">
-        <v>1.901588953578369</v>
+        <v>1.901588946762224</v>
       </c>
       <c r="N2" t="n">
-        <v>4.904943222327987</v>
+        <v>4.90494323317218</v>
       </c>
       <c r="O2" t="n">
-        <v>2.604591483358906</v>
+        <v>2.604591482109694</v>
       </c>
       <c r="P2" t="n">
-        <v>2.297607997787399</v>
+        <v>2.297607997005125</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.045575238038547</v>
+        <v>2.045575240043453</v>
       </c>
       <c r="R2" t="n">
-        <v>1.900121960982089</v>
+        <v>1.900121960958007</v>
       </c>
     </row>
     <row r="3">
@@ -1170,55 +1170,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.176397863873157</v>
+        <v>0.1763978641107663</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1289298114054421</v>
+        <v>0.1289298110924029</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08912137150752722</v>
+        <v>0.08912137144682536</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08433079085481582</v>
+        <v>0.08433079087362655</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07089390400141962</v>
+        <v>0.07089390397842625</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04429177266919945</v>
+        <v>0.04429177265816509</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0403523122816789</v>
+        <v>0.04035231201565105</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2415554358338558</v>
+        <v>0.2415554356430454</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1389775151785917</v>
+        <v>0.1389775147226769</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1159711449191195</v>
+        <v>0.1159711444342595</v>
       </c>
       <c r="L3" t="n">
-        <v>0.114949296488498</v>
+        <v>0.1149492967354288</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09507944767891843</v>
+        <v>0.09507944733811118</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2581549064383151</v>
+        <v>0.2581549070090621</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1370837622820477</v>
+        <v>0.1370837622162997</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1209267367256526</v>
+        <v>0.1209267366844803</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1076618546336077</v>
+        <v>0.1076618547391291</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1000064189990573</v>
+        <v>0.1000064189977899</v>
       </c>
     </row>
     <row r="4">
@@ -1228,55 +1228,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.176397863873157</v>
+        <v>0.1763978641107663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3053276752785992</v>
+        <v>0.3053276752031692</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3944490467861264</v>
+        <v>0.3944490466499945</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4787798376409422</v>
+        <v>0.4787798375236211</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5496737416423618</v>
+        <v>0.5496737415020473</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5939655143115613</v>
+        <v>0.5939655141602124</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6343178265932402</v>
+        <v>0.6343178261758634</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2415554358338558</v>
+        <v>0.2415554356430454</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3805329510124476</v>
+        <v>0.3805329503657223</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4965040959315671</v>
+        <v>0.4965040947999818</v>
       </c>
       <c r="L4" t="n">
-        <v>0.611453392420065</v>
+        <v>0.6114533915354106</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7065328400989834</v>
+        <v>0.7065328388735217</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2581549064383151</v>
+        <v>0.2581549070090621</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3952386687203628</v>
+        <v>0.3952386692253618</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5161654054460154</v>
+        <v>0.5161654059098421</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6238272600796232</v>
+        <v>0.6238272606489712</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7238336790786805</v>
+        <v>0.723833679646761</v>
       </c>
     </row>
     <row r="5">
@@ -1286,55 +1286,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2780906613023082</v>
+        <v>0.2780906618598802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2032574302662931</v>
+        <v>0.2032574299065297</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1404995536483271</v>
+        <v>0.1404995536450786</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1329472187589856</v>
+        <v>0.132947218876119</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1117640101369573</v>
+        <v>0.1117640101742483</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06982583621696287</v>
+        <v>0.06982583624551217</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06361528967016568</v>
+        <v>0.06361528929263206</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3418884758421343</v>
+        <v>0.3418884761650645</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1967035462344841</v>
+        <v>0.1967035459303762</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1641411953376042</v>
+        <v>0.16414119493605</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1626949095138931</v>
+        <v>0.1626949101455794</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1345718730718845</v>
+        <v>0.1345718728229299</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3566494816418369</v>
+        <v>0.3566494821504362</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1893857197367943</v>
+        <v>0.1893857194973272</v>
       </c>
       <c r="P5" t="n">
-        <v>0.167064258296978</v>
+        <v>0.1670642581089814</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1487383880377649</v>
+        <v>0.1487383880668129</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1381621522866258</v>
+        <v>0.1381621521764421</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.904943222327987</v>
+        <v>4.90494323317218</v>
       </c>
       <c r="C2" t="n">
-        <v>2.604591483358906</v>
+        <v>2.604591482109694</v>
       </c>
       <c r="D2" t="n">
-        <v>2.297607997787399</v>
+        <v>2.297607997005125</v>
       </c>
       <c r="E2" t="n">
-        <v>2.045575238038547</v>
+        <v>2.045575240043453</v>
       </c>
       <c r="F2" t="n">
-        <v>1.900121960982089</v>
+        <v>1.900121960958007</v>
       </c>
     </row>
     <row r="3">
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2581549064383151</v>
+        <v>0.2581549070090621</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1370837622820477</v>
+        <v>0.1370837622162997</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1209267367256526</v>
+        <v>0.1209267366844803</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1076618546336077</v>
+        <v>0.1076618547391291</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1000064189990573</v>
+        <v>0.1000064189977899</v>
       </c>
     </row>
     <row r="4">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2581549064383151</v>
+        <v>0.2581549070090621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3952386687203628</v>
+        <v>0.3952386692253618</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5161654054460154</v>
+        <v>0.5161654059098421</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6238272600796232</v>
+        <v>0.6238272606489712</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7238336790786805</v>
+        <v>0.723833679646761</v>
       </c>
     </row>
     <row r="5">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3566494816418369</v>
+        <v>0.3566494821504362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1893857197367943</v>
+        <v>0.1893857194973272</v>
       </c>
       <c r="D5" t="n">
-        <v>0.167064258296978</v>
+        <v>0.1670642581089814</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1487383880377649</v>
+        <v>0.1487383880668129</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1381621522866258</v>
+        <v>0.1381621521764421</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['PPUNIT', 'QEXTRCT', 'QEDLESHI', 'QHISPC', 'QESL', 'QSERV', 'QNOHLTH', 'PERCAP', 'QFHH', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QRENTER', 'QPOVTY', 'QNOAUTO', 'QFEMLBR', 'QFEMALE']]</t>
+          <t>[['QESL', 'PPUNIT', 'QEDLESHI', 'QHISPC', 'QNOHLTH', 'QSERV', 'QEXTRCT', 'PERCAP', 'QFHH', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2019_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2019_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QESL' 'PPUNIT' 'QEDLESHI' 'QHISPC' 'QNOHLTH' 'QSERV' 'QEXTRCT' 'PERCAP'
+          <t>['QEDLESHI' 'QNOHLTH' 'QHISPC' 'QEXTRCT' 'QESL' 'QSERV' 'PPUNIT' 'PERCAP'
  'QFHH']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
+          <t>['PERCAP' 'MDHSEVAL' 'QRICH']</t>
         </is>
       </c>
     </row>
@@ -584,111 +584,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7710373703114096</v>
+        <v>0.8620380842759638</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1699122220342584</v>
+        <v>0.2178973325510936</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04922328053492717</v>
+        <v>0.009137243605508044</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1763260275555902</v>
+        <v>0.1896693364526857</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2279019739325974</v>
+        <v>-0.1047063828587944</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7163381413134868</v>
+        <v>0.6646404392352753</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.04911535347006139</v>
+        <v>0.4300115840665659</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.08826232351490147</v>
+        <v>-0.06979631751558973</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3752405587914745</v>
+        <v>0.252826990731446</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1082069730305032</v>
+        <v>-0.1342238769642341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8620380840342905</v>
+        <v>0.819568639255606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2178973314144597</v>
+        <v>0.3528442983468421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00913724299824761</v>
+        <v>-0.1123103916864342</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1896693359116807</v>
+        <v>0.1083518371728502</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1047063828551197</v>
+        <v>-0.131237892555282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8195686393389251</v>
+        <v>0.7782826626923555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3528442964268741</v>
+        <v>0.1356252035435732</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1123103918846655</v>
+        <v>-0.02831620208412136</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1083518371166312</v>
+        <v>0.06461226568293787</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1312378922779179</v>
+        <v>-0.2142235163579443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.664640440656863</v>
+        <v>0.7710373704484179</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4300115824886732</v>
+        <v>0.1699122230768075</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.06979631800196752</v>
+        <v>-0.04922327962445867</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2528269903147914</v>
+        <v>0.1763260284026614</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1342238767271383</v>
+        <v>-0.2279019748130739</v>
       </c>
     </row>
     <row r="7">
@@ -698,41 +698,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5739901519602962</v>
+        <v>0.5739901513427762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3660124165492233</v>
+        <v>0.3660124179910582</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1657718182772126</v>
+        <v>-0.1657718179639883</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3037369625029354</v>
+        <v>0.3037369633211601</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.05431698638550993</v>
+        <v>-0.05431698626059541</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7782826624132134</v>
+        <v>0.71633814219003</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1356252026708027</v>
+        <v>-0.04911535310777478</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02831620240160483</v>
+        <v>-0.08826232564822376</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06461226540028045</v>
+        <v>-0.3752405601528189</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2142235158524506</v>
+        <v>0.1082069746223338</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5008581706111616</v>
+        <v>0.5008581690259812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.706828701298429</v>
+        <v>0.7068287033084696</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2354656060493542</v>
+        <v>-0.2354656063849339</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1849142842472271</v>
+        <v>0.1849142844059582</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08409873372830448</v>
+        <v>0.08409873417450987</v>
       </c>
     </row>
     <row r="10">
@@ -764,63 +764,63 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5756381644391316</v>
+        <v>0.5756381629032785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2481999142322477</v>
+        <v>0.248199915488762</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.007302870366954998</v>
+        <v>-0.007302870445849045</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08150148524366285</v>
+        <v>0.08150148537998918</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2295452304581432</v>
+        <v>0.2295452300395732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2370191025212669</v>
+        <v>0.3768770836629284</v>
       </c>
       <c r="C11" t="n">
-        <v>0.837586213503246</v>
+        <v>0.7947218046793378</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2059104174342114</v>
+        <v>-0.07404588231853597</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3148028664732525</v>
+        <v>-0.03403758710405047</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03073101713398335</v>
+        <v>0.02917640928445934</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3768770853591332</v>
+        <v>0.2370191031552573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7947218037000914</v>
+        <v>0.8375862075166592</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.07404588234023969</v>
+        <v>-0.2059104180519659</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03403758781339291</v>
+        <v>0.314802867042024</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0291764094771565</v>
+        <v>-0.03073101693970662</v>
       </c>
     </row>
     <row r="13">
@@ -830,19 +830,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2799970105938261</v>
+        <v>-0.2799970098547795</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2283516395058378</v>
+        <v>-0.2283516398940141</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7796766778756494</v>
+        <v>0.7796766779837438</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3080563892774956</v>
+        <v>-0.3080563899881849</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07828734457891075</v>
+        <v>-0.0782873443898072</v>
       </c>
     </row>
     <row r="14">
@@ -852,19 +852,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01911179177596987</v>
+        <v>-0.01911179139833172</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1421335481267801</v>
+        <v>-0.1421335483316432</v>
       </c>
       <c r="D14" t="n">
-        <v>0.722804315970739</v>
+        <v>0.7228043156124819</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.06893936282044803</v>
+        <v>-0.0689393633522714</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5773032568375647</v>
+        <v>0.5773032562583538</v>
       </c>
     </row>
     <row r="15">
@@ -874,19 +874,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03069875454850582</v>
+        <v>0.03069875492759202</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06832501990930143</v>
+        <v>-0.06832502057699512</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8135614489793346</v>
+        <v>0.8135614455893483</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1401439056242418</v>
+        <v>-0.1401439072940358</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1110613116324732</v>
+        <v>0.1110613128018867</v>
       </c>
     </row>
     <row r="16">
@@ -896,19 +896,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02252423251283685</v>
+        <v>-0.02252423312219319</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2520805273154729</v>
+        <v>0.2520805272977203</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4372443891608503</v>
+        <v>-0.4372443875468589</v>
       </c>
       <c r="E16" t="n">
-        <v>0.737637042952187</v>
+        <v>0.7376370433943754</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1126483035129214</v>
+        <v>-0.1126483045145808</v>
       </c>
     </row>
     <row r="17">
@@ -918,19 +918,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.133889969887876</v>
+        <v>0.133889969683226</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0532923984052213</v>
+        <v>0.05329239945452558</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.04656029707767763</v>
+        <v>-0.04656029804988597</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7398553445767126</v>
+        <v>0.7398553397443045</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01303061619987351</v>
+        <v>0.01303061650687244</v>
       </c>
     </row>
     <row r="18">
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2772247094325571</v>
+        <v>0.2772247098639593</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1320875694826831</v>
+        <v>0.1320875678166976</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.330793361418331</v>
+        <v>-0.330793362452565</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5596088471642952</v>
+        <v>0.559608850492135</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1365168950783244</v>
+        <v>0.1365168969599956</v>
       </c>
     </row>
     <row r="19">
@@ -962,19 +962,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02635136390715215</v>
+        <v>-0.02635136443983416</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.04008883933396452</v>
+        <v>-0.0400888387455506</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2036171317561216</v>
+        <v>0.2036171330912839</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0233369804047918</v>
+        <v>0.02333698066744068</v>
       </c>
       <c r="F19" t="n">
-        <v>0.855443602512891</v>
+        <v>0.8554435972136977</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2223644614709627</v>
+        <v>-0.2223644618064193</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08523116677994901</v>
+        <v>0.08523116692075722</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0413046652323644</v>
+        <v>-0.04130466541065026</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004904383437521533</v>
+        <v>0.004904383738311581</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7515631002766183</v>
+        <v>0.7515631029299903</v>
       </c>
     </row>
   </sheetData>
@@ -1133,34 +1133,34 @@
         <v>1.089512424422578</v>
       </c>
       <c r="I2" t="n">
-        <v>4.831108712860908</v>
+        <v>4.831108723693776</v>
       </c>
       <c r="J2" t="n">
-        <v>2.779550294453538</v>
+        <v>2.779550288963235</v>
       </c>
       <c r="K2" t="n">
-        <v>2.31942288868519</v>
+        <v>2.319422895881234</v>
       </c>
       <c r="L2" t="n">
-        <v>2.298985934708575</v>
+        <v>2.298985943728262</v>
       </c>
       <c r="M2" t="n">
-        <v>1.901588946762224</v>
+        <v>1.901588949158604</v>
       </c>
       <c r="N2" t="n">
-        <v>4.90494323317218</v>
+        <v>4.904943228405265</v>
       </c>
       <c r="O2" t="n">
-        <v>2.604591482109694</v>
+        <v>2.604591481887345</v>
       </c>
       <c r="P2" t="n">
-        <v>2.297607997005125</v>
+        <v>2.297607991535839</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.045575240043453</v>
+        <v>2.045575240937027</v>
       </c>
       <c r="R2" t="n">
-        <v>1.900121960958007</v>
+        <v>1.900121957134602</v>
       </c>
     </row>
     <row r="3">
@@ -1191,34 +1191,34 @@
         <v>0.04035231201565105</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2415554356430454</v>
+        <v>0.2415554361846888</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1389775147226769</v>
+        <v>0.1389775144481617</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1159711444342595</v>
+        <v>0.1159711447940617</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1149492967354288</v>
+        <v>0.1149492971864131</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09507944733811118</v>
+        <v>0.09507944745793022</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2581549070090621</v>
+        <v>0.2581549067581718</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1370837622162997</v>
+        <v>0.1370837622045971</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1209267366844803</v>
+        <v>0.1209267363966231</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1076618547391291</v>
+        <v>0.1076618547861593</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1000064189977899</v>
+        <v>0.100006418796558</v>
       </c>
     </row>
     <row r="4">
@@ -1249,34 +1249,34 @@
         <v>0.6343178261758634</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2415554356430454</v>
+        <v>0.2415554361846888</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3805329503657223</v>
+        <v>0.3805329506328505</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4965040947999818</v>
+        <v>0.4965040954269123</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6114533915354106</v>
+        <v>0.6114533926133254</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7065328388735217</v>
+        <v>0.7065328400712556</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2581549070090621</v>
+        <v>0.2581549067581718</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3952386692253618</v>
+        <v>0.3952386689627689</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5161654059098421</v>
+        <v>0.516165405359392</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6238272606489712</v>
+        <v>0.6238272601455513</v>
       </c>
       <c r="R4" t="n">
-        <v>0.723833679646761</v>
+        <v>0.7238336789421094</v>
       </c>
     </row>
     <row r="5">
@@ -1307,34 +1307,34 @@
         <v>0.06361528929263206</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3418884761650645</v>
+        <v>0.3418884763521075</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1967035459303762</v>
+        <v>0.1967035452083805</v>
       </c>
       <c r="K5" t="n">
-        <v>0.16414119493605</v>
+        <v>0.1641411951670438</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1626949101455794</v>
+        <v>0.1626949105080808</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1345718728229299</v>
+        <v>0.1345718727643873</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3566494821504362</v>
+        <v>0.3566494821510212</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1893857194973272</v>
+        <v>0.1893857196655266</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1670642581089814</v>
+        <v>0.1670642578739343</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1487383880668129</v>
+        <v>0.1487383882765835</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1381621521764421</v>
+        <v>0.1381621520329345</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.90494323317218</v>
+        <v>4.904943228405265</v>
       </c>
       <c r="C2" t="n">
-        <v>2.604591482109694</v>
+        <v>2.604591481887345</v>
       </c>
       <c r="D2" t="n">
-        <v>2.297607997005125</v>
+        <v>2.297607991535839</v>
       </c>
       <c r="E2" t="n">
-        <v>2.045575240043453</v>
+        <v>2.045575240937027</v>
       </c>
       <c r="F2" t="n">
-        <v>1.900121960958007</v>
+        <v>1.900121957134602</v>
       </c>
     </row>
     <row r="3">
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2581549070090621</v>
+        <v>0.2581549067581718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1370837622162997</v>
+        <v>0.1370837622045971</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1209267366844803</v>
+        <v>0.1209267363966231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1076618547391291</v>
+        <v>0.1076618547861593</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1000064189977899</v>
+        <v>0.100006418796558</v>
       </c>
     </row>
     <row r="4">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2581549070090621</v>
+        <v>0.2581549067581718</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3952386692253618</v>
+        <v>0.3952386689627689</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5161654059098421</v>
+        <v>0.516165405359392</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6238272606489712</v>
+        <v>0.6238272601455513</v>
       </c>
       <c r="F4" t="n">
-        <v>0.723833679646761</v>
+        <v>0.7238336789421094</v>
       </c>
     </row>
     <row r="5">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3566494821504362</v>
+        <v>0.3566494821510212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1893857194973272</v>
+        <v>0.1893857196655266</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1670642581089814</v>
+        <v>0.1670642578739343</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1487383880668129</v>
+        <v>0.1487383882765835</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1381621521764421</v>
+        <v>0.1381621520329345</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QESL', 'PPUNIT', 'QEDLESHI', 'QHISPC', 'QNOHLTH', 'QSERV', 'QEXTRCT', 'PERCAP', 'QFHH', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
+          <t>[['QEDLESHI', 'QNOHLTH', 'QHISPC', 'QEXTRCT', 'QESL', 'QSERV', 'PPUNIT', 'PERCAP', 'QFHH', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2019_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2019_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QEDLESHI' 'QNOHLTH' 'QHISPC' 'QEXTRCT' 'QESL' 'QSERV' 'PPUNIT' 'PERCAP'
+          <t>['QSERV' 'QEXTRCT' 'QESL' 'QHISPC' 'QEDLESHI' 'PPUNIT' 'QNOHLTH' 'PERCAP'
  'QFHH']</t>
         </is>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'MDHSEVAL' 'QRICH']</t>
+          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
+          <t>['QAGEDEP' 'MEDAGE' 'QSSBEN']</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
+          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
         </is>
       </c>
     </row>
@@ -584,155 +584,155 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QSERV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8620380842759638</v>
+        <v>0.5739901508116552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2178973325510936</v>
+        <v>0.3660124170322497</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009137243605508044</v>
+        <v>-0.1657718183206</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1896693364526857</v>
+        <v>0.3037369628643269</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1047063828587944</v>
+        <v>-0.0543169869376279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6646404392352753</v>
+        <v>0.7782826600388352</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4300115840665659</v>
+        <v>0.1356252037097591</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.06979631751558973</v>
+        <v>-0.02831620362618091</v>
       </c>
       <c r="E3" t="n">
-        <v>0.252826990731446</v>
+        <v>0.0646122658482791</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1342238769642341</v>
+        <v>-0.2142235147783895</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>QHISPC</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.819568639255606</v>
+        <v>0.7710373695882029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3528442983468421</v>
+        <v>0.1699122223846949</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1123103916864342</v>
+        <v>-0.04922328224422961</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1083518371728502</v>
+        <v>0.1763260269844859</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.131237892555282</v>
+        <v>-0.2279019734554908</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QHISPC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7782826626923555</v>
+        <v>0.8195686404388735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1356252035435732</v>
+        <v>0.3528442961790385</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02831620208412136</v>
+        <v>-0.1123103921751212</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06461226568293787</v>
+        <v>0.108351837525289</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2142235163579443</v>
+        <v>-0.1312378923933365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7710373704484179</v>
+        <v>0.8620380822398342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1699122230768075</v>
+        <v>0.2178973320321957</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04922327962445867</v>
+        <v>0.009137242391464871</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1763260284026614</v>
+        <v>0.189669336882269</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2279019748130739</v>
+        <v>-0.1047063831520173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>QSERV</t>
+          <t>PPUNIT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5739901513427762</v>
+        <v>0.7163381389618707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3660124179910582</v>
+        <v>-0.04911535288863684</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1657718179639883</v>
+        <v>-0.08826231699206404</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3037369633211601</v>
+        <v>-0.3752405488729229</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.05431698626059541</v>
+        <v>0.1082069702948971</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>PPUNIT</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.71633814219003</v>
+        <v>0.6646404399934442</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.04911535310777478</v>
+        <v>0.4300115830629964</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.08826232564822376</v>
+        <v>-0.06979631896018065</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3752405601528189</v>
+        <v>0.2528269898620109</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1082069746223338</v>
+        <v>-0.1342238768424573</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5008581690259812</v>
+        <v>0.5008581705796673</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7068287033084696</v>
+        <v>0.7068286996492041</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2354656063849339</v>
+        <v>-0.2354656045928186</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1849142844059582</v>
+        <v>0.1849142860830265</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08409873417450987</v>
+        <v>0.08409873265453682</v>
       </c>
     </row>
     <row r="10">
@@ -764,107 +764,107 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5756381629032785</v>
+        <v>0.5756381626801832</v>
       </c>
       <c r="C10" t="n">
-        <v>0.248199915488762</v>
+        <v>0.2481999142098628</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.007302870445849045</v>
+        <v>-0.007302868834883252</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08150148537998918</v>
+        <v>0.08150148749273067</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2295452300395732</v>
+        <v>0.2295452275461027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3768770836629284</v>
+        <v>0.2370191022580202</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7947218046793378</v>
+        <v>0.8375862129821161</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.07404588231853597</v>
+        <v>-0.2059104187482207</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.03403758710405047</v>
+        <v>0.3148028642276947</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02917640928445934</v>
+        <v>-0.03073101708020622</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2370191031552573</v>
+        <v>0.3768770870459165</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8375862075166592</v>
+        <v>0.7947217985220195</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2059104180519659</v>
+        <v>-0.07404588281102142</v>
       </c>
       <c r="E12" t="n">
-        <v>0.314802867042024</v>
+        <v>-0.03403758640670176</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03073101693970662</v>
+        <v>0.02917640986609455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2799970098547795</v>
+        <v>-0.01911179298704222</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2283516398940141</v>
+        <v>-0.1421335473962037</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7796766779837438</v>
+        <v>0.7228043116834884</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3080563899881849</v>
+        <v>-0.0689393639759782</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0782873443898072</v>
+        <v>0.5773032518146842</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01911179139833172</v>
+        <v>-0.2799970097319023</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1421335483316432</v>
+        <v>-0.2283516415427634</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7228043156124819</v>
+        <v>0.7796766711354742</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0689393633522714</v>
+        <v>-0.3080563893339741</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5773032562583538</v>
+        <v>-0.07828734184485212</v>
       </c>
     </row>
     <row r="15">
@@ -874,19 +874,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03069875492759202</v>
+        <v>0.03069875376985247</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06832502057699512</v>
+        <v>-0.06832501896212509</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8135614455893483</v>
+        <v>0.8135614545156136</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1401439072940358</v>
+        <v>-0.1401439019967177</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1110613128018867</v>
+        <v>0.1110613093848064</v>
       </c>
     </row>
     <row r="16">
@@ -896,19 +896,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02252423312219319</v>
+        <v>-0.02252423356151127</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2520805272977203</v>
+        <v>0.2520805303380479</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4372443875468589</v>
+        <v>-0.4372443913909764</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7376370433943754</v>
+        <v>0.737637032484032</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1126483045145808</v>
+        <v>-0.1126483030971852</v>
       </c>
     </row>
     <row r="17">
@@ -918,19 +918,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.133889969683226</v>
+        <v>0.1338899665208283</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05329239945452558</v>
+        <v>0.05329239936709079</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.04656029804988597</v>
+        <v>-0.04656029485644806</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7398553397443045</v>
+        <v>0.7398553518884753</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01303061650687244</v>
+        <v>0.01303061387221414</v>
       </c>
     </row>
     <row r="18">
@@ -940,63 +940,63 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2772247098639593</v>
+        <v>0.2772247077757998</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1320875678166976</v>
+        <v>0.1320875700271804</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.330793362452565</v>
+        <v>-0.3307933605032718</v>
       </c>
       <c r="E18" t="n">
-        <v>0.559608850492135</v>
+        <v>0.5596088513302778</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1365168969599956</v>
+        <v>0.1365168941142421</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02635136443983416</v>
+        <v>-0.2223644605289088</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0400888387455506</v>
+        <v>0.08523116655993161</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2036171330912839</v>
+        <v>-0.04130466453781202</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02333698066744068</v>
+        <v>0.00490438324707819</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8554435972136977</v>
+        <v>0.7515631009125495</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2223644618064193</v>
+        <v>-0.02635136301293945</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08523116692075722</v>
+        <v>-0.04008883949206845</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.04130466541065026</v>
+        <v>0.2036171322932024</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004904383738311581</v>
+        <v>0.02333698040035049</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7515631029299903</v>
+        <v>0.8554436033195556</v>
       </c>
     </row>
   </sheetData>
@@ -1133,34 +1133,34 @@
         <v>1.089512424422578</v>
       </c>
       <c r="I2" t="n">
-        <v>4.831108723693776</v>
+        <v>4.83110872604232</v>
       </c>
       <c r="J2" t="n">
-        <v>2.779550288963235</v>
+        <v>2.779550285044058</v>
       </c>
       <c r="K2" t="n">
-        <v>2.319422895881234</v>
+        <v>2.319422888926871</v>
       </c>
       <c r="L2" t="n">
-        <v>2.298985943728262</v>
+        <v>2.298985923153931</v>
       </c>
       <c r="M2" t="n">
-        <v>1.901588949158604</v>
+        <v>1.901588935700678</v>
       </c>
       <c r="N2" t="n">
-        <v>4.904943228405265</v>
+        <v>4.904943217867458</v>
       </c>
       <c r="O2" t="n">
-        <v>2.604591481887345</v>
+        <v>2.604591474288087</v>
       </c>
       <c r="P2" t="n">
-        <v>2.297607991535839</v>
+        <v>2.297607989795691</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.045575240937027</v>
+        <v>2.045575231653374</v>
       </c>
       <c r="R2" t="n">
-        <v>1.900121957134602</v>
+        <v>1.900121953565291</v>
       </c>
     </row>
     <row r="3">
@@ -1191,34 +1191,34 @@
         <v>0.04035231201565105</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2415554361846888</v>
+        <v>0.241555436302116</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1389775144481617</v>
+        <v>0.1389775142522029</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1159711447940617</v>
+        <v>0.1159711444463435</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1149492971864131</v>
+        <v>0.1149492961576966</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09507944745793022</v>
+        <v>0.0950794467850339</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2581549067581718</v>
+        <v>0.2581549062035504</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1370837622045971</v>
+        <v>0.1370837618046362</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1209267363966231</v>
+        <v>0.1209267363050364</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1076618547861593</v>
+        <v>0.107661854297546</v>
       </c>
       <c r="R3" t="n">
-        <v>0.100006418796558</v>
+        <v>0.1000064186086995</v>
       </c>
     </row>
     <row r="4">
@@ -1249,34 +1249,34 @@
         <v>0.6343178261758634</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2415554361846888</v>
+        <v>0.241555436302116</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3805329506328505</v>
+        <v>0.3805329505543189</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4965040954269123</v>
+        <v>0.4965040950006624</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6114533926133254</v>
+        <v>0.6114533911583591</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7065328400712556</v>
+        <v>0.7065328379433929</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2581549067581718</v>
+        <v>0.2581549062035504</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3952386689627689</v>
+        <v>0.3952386680081866</v>
       </c>
       <c r="P4" t="n">
-        <v>0.516165405359392</v>
+        <v>0.516165404313223</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6238272601455513</v>
+        <v>0.623827258610769</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7238336789421094</v>
+        <v>0.7238336772194686</v>
       </c>
     </row>
     <row r="5">
@@ -1307,34 +1307,34 @@
         <v>0.06361528929263206</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3418884763521075</v>
+        <v>0.341888477547974</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1967035452083805</v>
+        <v>0.1967035455234392</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1641411951670438</v>
+        <v>0.1641411951692401</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1626949105080808</v>
+        <v>0.1626949095420618</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1345718727643873</v>
+        <v>0.1345718722172848</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3566494821510212</v>
+        <v>0.3566494822335782</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1893857196655266</v>
+        <v>0.1893857195636836</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1670642578739343</v>
+        <v>0.1670642581449979</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1487383882765835</v>
+        <v>0.1487383879555284</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1381621520329345</v>
+        <v>0.1381621521022118</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.904943228405265</v>
+        <v>4.904943217867458</v>
       </c>
       <c r="C2" t="n">
-        <v>2.604591481887345</v>
+        <v>2.604591474288087</v>
       </c>
       <c r="D2" t="n">
-        <v>2.297607991535839</v>
+        <v>2.297607989795691</v>
       </c>
       <c r="E2" t="n">
-        <v>2.045575240937027</v>
+        <v>2.045575231653374</v>
       </c>
       <c r="F2" t="n">
-        <v>1.900121957134602</v>
+        <v>1.900121953565291</v>
       </c>
     </row>
     <row r="3">
@@ -1412,19 +1412,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2581549067581718</v>
+        <v>0.2581549062035504</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1370837622045971</v>
+        <v>0.1370837618046362</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1209267363966231</v>
+        <v>0.1209267363050364</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1076618547861593</v>
+        <v>0.107661854297546</v>
       </c>
       <c r="F3" t="n">
-        <v>0.100006418796558</v>
+        <v>0.1000064186086995</v>
       </c>
     </row>
     <row r="4">
@@ -1434,19 +1434,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2581549067581718</v>
+        <v>0.2581549062035504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3952386689627689</v>
+        <v>0.3952386680081866</v>
       </c>
       <c r="D4" t="n">
-        <v>0.516165405359392</v>
+        <v>0.516165404313223</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6238272601455513</v>
+        <v>0.623827258610769</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7238336789421094</v>
+        <v>0.7238336772194686</v>
       </c>
     </row>
     <row r="5">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3566494821510212</v>
+        <v>0.3566494822335782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1893857196655266</v>
+        <v>0.1893857195636836</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1670642578739343</v>
+        <v>0.1670642581449979</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1487383882765835</v>
+        <v>0.1487383879555284</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1381621520329345</v>
+        <v>0.1381621521022118</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QEDLESHI', 'QNOHLTH', 'QHISPC', 'QEXTRCT', 'QESL', 'QSERV', 'PPUNIT', 'PERCAP', 'QFHH', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMALE', 'QFEMLBR']]</t>
+          <t>[['QSERV', 'QEXTRCT', 'QESL', 'QHISPC', 'QEDLESHI', 'PPUNIT', 'QNOHLTH', 'PERCAP', 'QFHH', 'QRICH', 'MDHSEVAL', 'QAGEDEP', 'MEDAGE', 'QSSBEN', 'QRENTER', 'QNOAUTO', 'QPOVTY', 'QFEMLBR', 'QFEMALE']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
